--- a/output/fit_clients/fit_round_305.xlsx
+++ b/output/fit_clients/fit_round_305.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2274380254.207572</v>
+        <v>1624323157.467636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09130913594955088</v>
+        <v>0.07084639400838609</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03726306584885713</v>
+        <v>0.04045077308181753</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1137190159.641788</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1876701331.410063</v>
+        <v>2160006179.849825</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1744051467344672</v>
+        <v>0.1414010333129823</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03987383081242526</v>
+        <v>0.03899720472673099</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>938350686.6681986</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4698899086.231706</v>
+        <v>3177724476.068574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1233936737643113</v>
+        <v>0.100558975540772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02649927679427959</v>
+        <v>0.02462644812955586</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2349449606.816853</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3036286033.681403</v>
+        <v>3113394266.124345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035785064111382</v>
+        <v>0.07653048062508457</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03901028777097484</v>
+        <v>0.04473634242842291</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>114</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1518143084.315294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1933831598.545005</v>
+        <v>2377310775.695713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1194686610927414</v>
+        <v>0.1345603687187663</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05537493887421</v>
+        <v>0.04018327777061973</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>966915836.0293306</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3106140490.770606</v>
+        <v>2676177114.611233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06155875581304373</v>
+        <v>0.07944499564065623</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03258907533123057</v>
+        <v>0.04059933237605552</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>96</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1553070200.051195</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3247336721.297915</v>
+        <v>3175492643.832714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1790681039656494</v>
+        <v>0.2047912278715731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02866039928128249</v>
+        <v>0.03073248471896116</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>97</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1623668443.450383</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1754211398.79475</v>
+        <v>2000128774.846627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1702787088750918</v>
+        <v>0.1522899053687844</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03185716585580232</v>
+        <v>0.03375133959359719</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>877105760.11537</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5896056251.932746</v>
+        <v>5607648198.276942</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1978997502854086</v>
+        <v>0.1366969047426314</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04032526545895197</v>
+        <v>0.05300889158451503</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>128</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2948028294.636176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2996743527.360836</v>
+        <v>3966030075.639363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1155651750622224</v>
+        <v>0.1238522942044177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04968020746659633</v>
+        <v>0.03774187960797941</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>126</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1498371706.444175</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3091036122.868087</v>
+        <v>2368135699.335085</v>
       </c>
       <c r="F12" t="n">
-        <v>0.176913973922363</v>
+        <v>0.1818050321858872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04946645974363768</v>
+        <v>0.05037517435185988</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1545518087.76905</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4371137501.065985</v>
+        <v>4765713701.747256</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06703137565301444</v>
+        <v>0.07728768298696401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01962793873579434</v>
+        <v>0.02401897463070442</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>102</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2185568786.615229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2596419124.722507</v>
+        <v>2489110098.424479</v>
       </c>
       <c r="F14" t="n">
-        <v>0.159354467354546</v>
+        <v>0.1365318724431575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03967150287439846</v>
+        <v>0.03467094376780325</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1298209626.022964</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1262320999.532558</v>
+        <v>1525156295.070195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07160479512131583</v>
+        <v>0.102972577915728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03948203441785304</v>
+        <v>0.04789695674985558</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>631160531.3819509</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1952733068.88802</v>
+        <v>2365888476.813317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07412674930485186</v>
+        <v>0.08544729654241595</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03948487128600246</v>
+        <v>0.03728866247638587</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>976366614.1637802</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5110633840.550211</v>
+        <v>3794468577.367809</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1620482261597906</v>
+        <v>0.1698494567505483</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04562298052618777</v>
+        <v>0.04556423141830678</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>89</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2555316899.99941</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3556759491.906013</v>
+        <v>2518168725.984708</v>
       </c>
       <c r="F18" t="n">
-        <v>0.157428089757659</v>
+        <v>0.1737652471086927</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03062133432811952</v>
+        <v>0.0311054414190059</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1778379735.905099</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1342371011.125218</v>
+        <v>933659455.2704226</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1653683973432541</v>
+        <v>0.1463511100995635</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0267995252156669</v>
+        <v>0.02203892923695768</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>671185618.124315</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2104824606.680987</v>
+        <v>1729397097.149287</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1573176914944824</v>
+        <v>0.1315249928681043</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03101027165063637</v>
+        <v>0.0313541886806849</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1052412318.528857</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1982693493.982998</v>
+        <v>2184315208.411001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08625320242177378</v>
+        <v>0.06379668604087779</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04546541324314372</v>
+        <v>0.04514879591740092</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>991346784.6132627</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3004163628.899487</v>
+        <v>3145018638.324547</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1258200931514641</v>
+        <v>0.09152478629864609</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04448081773856569</v>
+        <v>0.054379488838722</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1502081875.735835</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1179344253.681615</v>
+        <v>1211037402.084123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.155960276603499</v>
+        <v>0.181816475454684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05361666040469754</v>
+        <v>0.04171528331039362</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>589672166.8110818</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3871317072.596318</v>
+        <v>4130437298.932011</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1488694954991122</v>
+        <v>0.1149544439846497</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03261804710957123</v>
+        <v>0.03742886726438833</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>89</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1935658512.95358</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1417429729.415355</v>
+        <v>1441220141.807144</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09662470562661353</v>
+        <v>0.09676529342892327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0277671153868401</v>
+        <v>0.02947328062164779</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>708714832.6711497</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>962642980.4018955</v>
+        <v>961972905.4965831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08251867886209645</v>
+        <v>0.1032441568903342</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02947106818909639</v>
+        <v>0.02385109535492189</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>481321453.1491503</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3703260539.164864</v>
+        <v>4203088067.54981</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153554862397558</v>
+        <v>0.1024251618218182</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02717350144756125</v>
+        <v>0.02518838292203812</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>70</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1851630294.462019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3374417865.503095</v>
+        <v>3731952231.509624</v>
       </c>
       <c r="F28" t="n">
-        <v>0.121920056907936</v>
+        <v>0.1249560669993623</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03883520276309165</v>
+        <v>0.04775607849590942</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1687208976.471374</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4528106052.041168</v>
+        <v>3631951212.276321</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1069156331680569</v>
+        <v>0.1039745308951215</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04018240766625702</v>
+        <v>0.03742673177486579</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>134</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2264053006.283141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2374782008.113464</v>
+        <v>1610095438.505678</v>
       </c>
       <c r="F30" t="n">
-        <v>0.134506290587236</v>
+        <v>0.09150130869440448</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03347606112855766</v>
+        <v>0.02845829694955607</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1187391084.174069</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1407413033.459678</v>
+        <v>1423150843.833339</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08044417644906536</v>
+        <v>0.08753715017403997</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04591805980658842</v>
+        <v>0.04448721589264712</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>703706419.3801025</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1284238152.770206</v>
+        <v>1460217876.02186</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09643849916476425</v>
+        <v>0.1198262523941791</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02542813153167904</v>
+        <v>0.03137961912273222</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>642119100.0286894</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2848881531.79051</v>
+        <v>1892189879.406518</v>
       </c>
       <c r="F33" t="n">
-        <v>0.152258797612357</v>
+        <v>0.173456220062351</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03812177180159358</v>
+        <v>0.03762538988389087</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1424440774.416907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1485100452.483607</v>
+        <v>1083585542.863063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08872119914040334</v>
+        <v>0.07681837034429771</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01900076487226556</v>
+        <v>0.01893060588545702</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>742550184.5900184</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>991959753.6861773</v>
+        <v>983353719.6664081</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08146460798592146</v>
+        <v>0.1091451257293209</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03906583514338154</v>
+        <v>0.04187502702962459</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>495979897.1880804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2513352043.993163</v>
+        <v>2081911567.475197</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1156744139007269</v>
+        <v>0.1520485830073591</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02646006087761046</v>
+        <v>0.02404766119525718</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1256676042.886169</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2787407548.008901</v>
+        <v>2373265749.329875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08212399493432963</v>
+        <v>0.09529936643485824</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02876848011324865</v>
+        <v>0.03471799249370602</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>79</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1393703909.635381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1379724309.463406</v>
+        <v>1747796140.019963</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08490804886098045</v>
+        <v>0.1086002369915031</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03428311335025991</v>
+        <v>0.03108341678951524</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>689862220.9807355</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2059036418.849346</v>
+        <v>1488543534.521425</v>
       </c>
       <c r="F39" t="n">
-        <v>0.167054139932337</v>
+        <v>0.1299986565209144</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02848520229476556</v>
+        <v>0.0210418963143303</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1029518194.987464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1715379864.531106</v>
+        <v>1612467330.299679</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1498425785883404</v>
+        <v>0.1624291779598678</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05971685992435444</v>
+        <v>0.05950594836944904</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>857689844.5338115</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2493157622.363807</v>
+        <v>2042867160.055156</v>
       </c>
       <c r="F41" t="n">
-        <v>0.126508714677177</v>
+        <v>0.1520499074265222</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03506989132101032</v>
+        <v>0.0301771570134633</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1246578837.133971</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3017587589.030332</v>
+        <v>4298819238.193292</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09360932992477237</v>
+        <v>0.111456720328526</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0302423170187237</v>
+        <v>0.03632228657027173</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1508793756.154997</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2327835337.978303</v>
+        <v>2840780952.84228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1314815976844754</v>
+        <v>0.1625463774741158</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01853873346092636</v>
+        <v>0.01570330159121686</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1163917734.978119</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2192205828.857201</v>
+        <v>1919093834.248884</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1009812993216303</v>
+        <v>0.06587192677340882</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03249009310395084</v>
+        <v>0.02613880280118432</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1096103059.123135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1888679987.165618</v>
+        <v>2388328795.773393</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1807859214603757</v>
+        <v>0.1682153587055198</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04344199148895728</v>
+        <v>0.05049553694912545</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>944339973.2078439</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3775409478.909425</v>
+        <v>4454408107.852018</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1528269140017353</v>
+        <v>0.1274086570266973</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05015361824924978</v>
+        <v>0.0413786975716453</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>108</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1887704696.143049</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3728360240.950358</v>
+        <v>3289632084.820765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1780685011374909</v>
+        <v>0.1415793891573628</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03887171409845105</v>
+        <v>0.0483486862239368</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1864180104.22842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3107574864.866797</v>
+        <v>4654337162.675013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09158447767155091</v>
+        <v>0.07252941518650345</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0361366796193659</v>
+        <v>0.02405969831559585</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1553787518.663887</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1750535286.915879</v>
+        <v>1370619739.522598</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1400362983668424</v>
+        <v>0.1940654316672392</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04454046446671203</v>
+        <v>0.04317418499992942</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>875267636.5375636</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3062086399.693738</v>
+        <v>3279179930.13116</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1528600027153723</v>
+        <v>0.1228003911498703</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04543044691233218</v>
+        <v>0.04203621816583606</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>104</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1531043255.256087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1119909330.394399</v>
+        <v>1134793013.218777</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1878234575584272</v>
+        <v>0.1961472829953199</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05268144947619441</v>
+        <v>0.05184869943505276</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>559954729.7341005</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3910951117.931013</v>
+        <v>4140991730.481536</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1051950500762293</v>
+        <v>0.1191373019954502</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0574507235530318</v>
+        <v>0.06101274130194679</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>125</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1955475620.687256</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3277402445.922695</v>
+        <v>3331308437.796137</v>
       </c>
       <c r="F53" t="n">
-        <v>0.138781930625281</v>
+        <v>0.1242400915512511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02256479545262169</v>
+        <v>0.03508671600395751</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1638701236.243305</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3486080423.247304</v>
+        <v>4868307462.471008</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1571099255293426</v>
+        <v>0.1563594793248797</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056428256409844</v>
+        <v>0.04169562084820184</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1743040235.353476</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4592850972.435652</v>
+        <v>4007778862.293253</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1400093977282725</v>
+        <v>0.1927717906220363</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02000435158188205</v>
+        <v>0.03244519869309879</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2296425487.28196</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1630590492.137441</v>
+        <v>1364351633.508353</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509704565730889</v>
+        <v>0.1269089589088996</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04172471455016897</v>
+        <v>0.04169709420028303</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>815295268.9973921</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3286008385.132266</v>
+        <v>2963692379.264391</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1512617944822468</v>
+        <v>0.1680569763658445</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02713186500101251</v>
+        <v>0.01796467879708393</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1643004220.986691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1506584108.245145</v>
+        <v>1846683554.644308</v>
       </c>
       <c r="F58" t="n">
-        <v>0.160806140149781</v>
+        <v>0.2000473537616408</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03266839070502461</v>
+        <v>0.03646816296676311</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>753292084.6723878</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4807162161.344131</v>
+        <v>4456224059.937579</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1142282077971952</v>
+        <v>0.1234887641490223</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04690078184475116</v>
+        <v>0.03254524262559767</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2403581017.692102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2795265102.038741</v>
+        <v>3433717364.069966</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1656355606200364</v>
+        <v>0.1274762218419378</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02492531809715456</v>
+        <v>0.02914090793056846</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1397632599.896365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3059887004.660322</v>
+        <v>2887185070.681508</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1160886996739392</v>
+        <v>0.1295918284798729</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02189863603687191</v>
+        <v>0.01992000244598092</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1529943477.145196</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2091144652.749279</v>
+        <v>1563229556.571658</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1872417274080704</v>
+        <v>0.1904745389884831</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03318183025268436</v>
+        <v>0.04173848732921994</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1045572398.131163</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3847927893.341785</v>
+        <v>4968540336.849662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09724874403379331</v>
+        <v>0.09500233228176992</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02934055768173685</v>
+        <v>0.04295639075118846</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1923964015.861825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3349821210.500474</v>
+        <v>4488370034.827195</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1582499109091933</v>
+        <v>0.136329940318501</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02502976087420714</v>
+        <v>0.03389817056305683</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>95</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1674910595.385509</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5598388492.026985</v>
+        <v>5134414086.841787</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1322495590346614</v>
+        <v>0.1209460230169109</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03098889770751297</v>
+        <v>0.02767578241187648</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>109</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2799194169.204679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5308704527.512086</v>
+        <v>5634610697.516158</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1369029157407231</v>
+        <v>0.1610709242910811</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03469953210014717</v>
+        <v>0.0354042035234946</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>88</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2654352307.441494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3108163816.932145</v>
+        <v>2613371783.610524</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08594523004536499</v>
+        <v>0.09176877835343281</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04113087205042013</v>
+        <v>0.03374617387704417</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>98</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1554081917.542095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6010620919.11325</v>
+        <v>4626088451.42139</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1300240050246594</v>
+        <v>0.1598652457523571</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04244093623723505</v>
+        <v>0.03524941047518738</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3005310577.192869</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1843491696.703454</v>
+        <v>2202845430.199063</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1640175936289929</v>
+        <v>0.1310406787831182</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03882398013969959</v>
+        <v>0.0517645876634295</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>921745833.0966924</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2342114307.019391</v>
+        <v>3506554595.436056</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09510031547067878</v>
+        <v>0.09954108758872698</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03146961921901054</v>
+        <v>0.03660573750990345</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>87</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1171057087.646431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5549928667.34384</v>
+        <v>4059980817.89055</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1437214476264848</v>
+        <v>0.1596322029305276</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02317302875450748</v>
+        <v>0.02056677299085972</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2774964480.41943</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1830244870.364375</v>
+        <v>2206351392.111637</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07610347942703316</v>
+        <v>0.1082778471940096</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03272440537436398</v>
+        <v>0.03588787272930676</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>915122408.9178094</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2865057140.73193</v>
+        <v>2927206229.018989</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07308801035995655</v>
+        <v>0.08661902776870921</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03918156054986447</v>
+        <v>0.04606543676603305</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>116</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1432528578.691492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3260940571.401797</v>
+        <v>3955624649.905876</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1162356830625871</v>
+        <v>0.1246207271041984</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02413682988909426</v>
+        <v>0.02696628577395402</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>103</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1630470328.563695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2438071239.754517</v>
+        <v>2454425216.057612</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1609997847864266</v>
+        <v>0.1668602001152242</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02763035381503731</v>
+        <v>0.02371507887883146</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1219035542.964245</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5376120749.550439</v>
+        <v>3329574483.733073</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1205358770543581</v>
+        <v>0.1124910380010757</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02847344745372403</v>
+        <v>0.02235395246647559</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2688060417.164847</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1784123950.718385</v>
+        <v>2288827866.92553</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1360992560634875</v>
+        <v>0.1566643692991342</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02768686731724179</v>
+        <v>0.02304333446396551</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>892062005.0390697</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4140468811.136252</v>
+        <v>3098783679.410057</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1152312595226879</v>
+        <v>0.1140557841016194</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03555344720414487</v>
+        <v>0.04022479148670138</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>106</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2070234361.255449</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1761475032.71964</v>
+        <v>1451210113.199228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1690688549001169</v>
+        <v>0.1276337638408872</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02535845672358963</v>
+        <v>0.02916199876970726</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>880737596.2749777</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5012583168.99773</v>
+        <v>3815644252.628523</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0757661924970849</v>
+        <v>0.07760956273958534</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02392421971991806</v>
+        <v>0.0336320768426649</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2506291634.345644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4359020432.720704</v>
+        <v>4189345520.094326</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08404207498187832</v>
+        <v>0.1054921147225234</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02172113697390711</v>
+        <v>0.02804833713890079</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2179510192.914656</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5558678833.326172</v>
+        <v>4650013922.24454</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1551678344833753</v>
+        <v>0.1475035198476852</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01835016544640112</v>
+        <v>0.02012623915261955</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2779339369.451239</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1932190248.631109</v>
+        <v>1813790695.348196</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105259598742492</v>
+        <v>0.1509992605577438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03136271543628345</v>
+        <v>0.03383739445034589</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>966095101.190639</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2424007974.870474</v>
+        <v>2576987808.648599</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07499439235350988</v>
+        <v>0.1115595587679592</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03187190646688752</v>
+        <v>0.03337061599117489</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1212003930.337212</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2294346078.732087</v>
+        <v>2677832903.076338</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1522190319619452</v>
+        <v>0.1554184356707455</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03935928647467567</v>
+        <v>0.04027108569686154</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>115</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1147173021.635566</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2352021293.929324</v>
+        <v>2791059238.831744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1307090431607679</v>
+        <v>0.1236609925756176</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02149753077615215</v>
+        <v>0.02756585903286565</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1176010723.543478</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1132113937.48767</v>
+        <v>955480876.9640456</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1547035165649718</v>
+        <v>0.1376997254032422</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03487781142463156</v>
+        <v>0.02906238122552047</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>566057006.9357549</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3553992539.971871</v>
+        <v>3497379197.218857</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1652421748694107</v>
+        <v>0.1491853226012919</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03685633702408624</v>
+        <v>0.02926160071903736</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>121</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1776996355.179434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2249365069.224529</v>
+        <v>3254794467.120991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1561445679604923</v>
+        <v>0.109266424699044</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02764673866359584</v>
+        <v>0.03913779489340826</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1124682627.745546</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1530776379.222547</v>
+        <v>1697482255.66528</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1314113925914191</v>
+        <v>0.1187529157015925</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04471866875015605</v>
+        <v>0.04084895410607122</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>765388173.9592717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1644909027.258729</v>
+        <v>1999069331.221756</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1610361337239632</v>
+        <v>0.1743335206996883</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04304137719267342</v>
+        <v>0.0410062854816939</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>822454533.2176752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1974106715.843862</v>
+        <v>2686426623.774179</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07990256696822794</v>
+        <v>0.08246996887312334</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0397251639520109</v>
+        <v>0.04455651409294725</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>78</v>
-      </c>
-      <c r="J92" t="n">
-        <v>987053302.1860536</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4109842405.739677</v>
+        <v>3240419851.792797</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1030367735282903</v>
+        <v>0.1394630139148336</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05216498595259051</v>
+        <v>0.03834090184018851</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2054921196.386894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1574012481.519993</v>
+        <v>1555661502.8471</v>
       </c>
       <c r="F94" t="n">
-        <v>0.135947816074595</v>
+        <v>0.1294793948866718</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03429889567850331</v>
+        <v>0.03673520663382166</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>787006183.6731894</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2982141123.754554</v>
+        <v>2031404286.237624</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1369843277742522</v>
+        <v>0.1147601808350826</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04856864526501824</v>
+        <v>0.03498910121981354</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>73</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1491070562.912834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2404424171.697929</v>
+        <v>2183618151.400957</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09934784880979865</v>
+        <v>0.08985284074336981</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03123375111169834</v>
+        <v>0.04524060826331109</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1202212029.651911</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4392441630.167508</v>
+        <v>4711697393.242656</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1499599838844593</v>
+        <v>0.1242429391296634</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02239531061232722</v>
+        <v>0.02150562066013173</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2196220903.020245</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2527001664.427024</v>
+        <v>3689177565.881672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08912606627323434</v>
+        <v>0.1209927311964857</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02696354437184542</v>
+        <v>0.02446447497357422</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1263500784.835158</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3077214791.093594</v>
+        <v>3286836972.024587</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1445924482527674</v>
+        <v>0.09680850515248948</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02266017999797312</v>
+        <v>0.03226721984341775</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>98</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1538607387.142292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4798952048.541624</v>
+        <v>4318290231.446842</v>
       </c>
       <c r="F100" t="n">
-        <v>0.110773967288457</v>
+        <v>0.1189773690374806</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02107655361949779</v>
+        <v>0.02727016677072035</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>93</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2399476158.732993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2608990929.257817</v>
+        <v>3492848714.062939</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1424220225071234</v>
+        <v>0.1567231759136872</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05671448589643915</v>
+        <v>0.04382929695934974</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>121</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1304495502.021199</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_305.xlsx
+++ b/output/fit_clients/fit_round_305.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1624323157.467636</v>
+        <v>1528487821.964355</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07084639400838609</v>
+        <v>0.1069062872223436</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04045077308181753</v>
+        <v>0.03179384978126551</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2160006179.849825</v>
+        <v>2556953540.268852</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1414010333129823</v>
+        <v>0.1202060370605681</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03899720472673099</v>
+        <v>0.03055376890082354</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3177724476.068574</v>
+        <v>4452052178.469702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.100558975540772</v>
+        <v>0.1214580010824061</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02462644812955586</v>
+        <v>0.02910888459838265</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3113394266.124345</v>
+        <v>3197915980.640908</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07653048062508457</v>
+        <v>0.09253933025972726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04473634242842291</v>
+        <v>0.04267223865824932</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2377310775.695713</v>
+        <v>2424561014.185234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1345603687187663</v>
+        <v>0.0986045003778859</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04018327777061973</v>
+        <v>0.03919355244434048</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2676177114.611233</v>
+        <v>1995679909.317763</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07944499564065623</v>
+        <v>0.09573932915201769</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04059933237605552</v>
+        <v>0.04969594294931554</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3175492643.832714</v>
+        <v>3534497591.684274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2047912278715731</v>
+        <v>0.202352787120775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03073248471896116</v>
+        <v>0.03214048047326224</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2000128774.846627</v>
+        <v>1915339256.52727</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1522899053687844</v>
+        <v>0.1674635857965686</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03375133959359719</v>
+        <v>0.03561515841263643</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5607648198.276942</v>
+        <v>5478843925.044287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1366969047426314</v>
+        <v>0.2098533185057412</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05300889158451503</v>
+        <v>0.04087250628445823</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3966030075.639363</v>
+        <v>4041915318.978035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1238522942044177</v>
+        <v>0.1361718922459055</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03774187960797941</v>
+        <v>0.03180736673516185</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2368135699.335085</v>
+        <v>2308261499.727522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1818050321858872</v>
+        <v>0.166244506236835</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05037517435185988</v>
+        <v>0.0486293657233996</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4765713701.747256</v>
+        <v>3996933140.022851</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07728768298696401</v>
+        <v>0.09698377300422691</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02401897463070442</v>
+        <v>0.02513680324738895</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2489110098.424479</v>
+        <v>2926252699.719778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365318724431575</v>
+        <v>0.1136507607962237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03467094376780325</v>
+        <v>0.03595261810262591</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1525156295.070195</v>
+        <v>1553870335.490015</v>
       </c>
       <c r="F15" t="n">
-        <v>0.102972577915728</v>
+        <v>0.09595183551875398</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04789695674985558</v>
+        <v>0.03083009503451191</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2365888476.813317</v>
+        <v>2488116164.767694</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08544729654241595</v>
+        <v>0.09930168826754963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03728866247638587</v>
+        <v>0.03766103800348833</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3794468577.367809</v>
+        <v>4943098049.879481</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698494567505483</v>
+        <v>0.1631032944380922</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04556423141830678</v>
+        <v>0.04500767622752901</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2518168725.984708</v>
+        <v>2631212853.188119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1737652471086927</v>
+        <v>0.125914989344667</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0311054414190059</v>
+        <v>0.02612278420925264</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>933659455.2704226</v>
+        <v>1087109751.493387</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1463511100995635</v>
+        <v>0.1656466962458218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02203892923695768</v>
+        <v>0.02598609622983475</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1729397097.149287</v>
+        <v>2375747843.509345</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1315249928681043</v>
+        <v>0.1113538099198098</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0313541886806849</v>
+        <v>0.02229586301630904</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2184315208.411001</v>
+        <v>2026250465.700743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06379668604087779</v>
+        <v>0.06937202949965288</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04514879591740092</v>
+        <v>0.04005504151807684</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3145018638.324547</v>
+        <v>2616116462.888297</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09152478629864609</v>
+        <v>0.1172584339403674</v>
       </c>
       <c r="G22" t="n">
-        <v>0.054379488838722</v>
+        <v>0.05484209432990024</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1211037402.084123</v>
+        <v>1140309890.369738</v>
       </c>
       <c r="F23" t="n">
-        <v>0.181816475454684</v>
+        <v>0.1461808951982554</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04171528331039362</v>
+        <v>0.05339587767342559</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4130437298.932011</v>
+        <v>3253057442.541053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1149544439846497</v>
+        <v>0.143185391261053</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03742886726438833</v>
+        <v>0.03202749380480307</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1441220141.807144</v>
+        <v>1018635658.782575</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09676529342892327</v>
+        <v>0.1053408298331356</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02947328062164779</v>
+        <v>0.02979338826955122</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>961972905.4965831</v>
+        <v>1392615411.050957</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1032441568903342</v>
+        <v>0.07881635473754081</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02385109535492189</v>
+        <v>0.02446774007600581</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4203088067.54981</v>
+        <v>3163995546.16643</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1024251618218182</v>
+        <v>0.118422959708901</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02518838292203812</v>
+        <v>0.01690819496734607</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3731952231.509624</v>
+        <v>2862481800.864377</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249560669993623</v>
+        <v>0.1329861106371106</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04775607849590942</v>
+        <v>0.03588339812660194</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3631951212.276321</v>
+        <v>3989531945.045794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1039745308951215</v>
+        <v>0.1361176536454568</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03742673177486579</v>
+        <v>0.03649190480737424</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1610095438.505678</v>
+        <v>1655844180.741846</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09150130869440448</v>
+        <v>0.1183483805531656</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02845829694955607</v>
+        <v>0.03788884423123103</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423150843.833339</v>
+        <v>1336514940.549376</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08753715017403997</v>
+        <v>0.1050355840311437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04448721589264712</v>
+        <v>0.03395145363503919</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460217876.02186</v>
+        <v>1758429191.931774</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1198262523941791</v>
+        <v>0.09099282255059588</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03137961912273222</v>
+        <v>0.02897347784791764</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1892189879.406518</v>
+        <v>2466585105.398337</v>
       </c>
       <c r="F33" t="n">
-        <v>0.173456220062351</v>
+        <v>0.132964529380722</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03762538988389087</v>
+        <v>0.04799794655949596</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083585542.863063</v>
+        <v>1094249831.817303</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07681837034429771</v>
+        <v>0.08962890084240543</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01893060588545702</v>
+        <v>0.0235038384366995</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>983353719.6664081</v>
+        <v>987431098.6382865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1091451257293209</v>
+        <v>0.08850150808253769</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04187502702962459</v>
+        <v>0.04132233654664152</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2081911567.475197</v>
+        <v>2597359769.28586</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1520485830073591</v>
+        <v>0.1727357643521296</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02404766119525718</v>
+        <v>0.02809617972507982</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2373265749.329875</v>
+        <v>1998403053.16435</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09529936643485824</v>
+        <v>0.08069657989593611</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03471799249370602</v>
+        <v>0.02824660854790184</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1747796140.019963</v>
+        <v>1939952777.319343</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1086002369915031</v>
+        <v>0.08495061472889949</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03108341678951524</v>
+        <v>0.02598917730458328</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1488543534.521425</v>
+        <v>1656111554.184485</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1299986565209144</v>
+        <v>0.1884284863085285</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0210418963143303</v>
+        <v>0.02317864780599149</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1612467330.299679</v>
+        <v>1200314125.282638</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1624291779598678</v>
+        <v>0.1163756178095151</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05950594836944904</v>
+        <v>0.04364798823432035</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2042867160.055156</v>
+        <v>2275498936.448644</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1520499074265222</v>
+        <v>0.1262918516397536</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0301771570134633</v>
+        <v>0.03836714518936867</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4298819238.193292</v>
+        <v>4291850526.055815</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111456720328526</v>
+        <v>0.09925433506716981</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03632228657027173</v>
+        <v>0.03737141233696753</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2840780952.84228</v>
+        <v>2723261887.209166</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1625463774741158</v>
+        <v>0.1695192907478437</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01570330159121686</v>
+        <v>0.02287854388974074</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1919093834.248884</v>
+        <v>1440070384.57879</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06587192677340882</v>
+        <v>0.08066737072112411</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02613880280118432</v>
+        <v>0.03473964525601147</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2388328795.773393</v>
+        <v>1666924585.00486</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1682153587055198</v>
+        <v>0.1314238571029019</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05049553694912545</v>
+        <v>0.04491652105800698</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4454408107.852018</v>
+        <v>4707392257.401557</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1274086570266973</v>
+        <v>0.137717192050433</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0413786975716453</v>
+        <v>0.05438309662878831</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3289632084.820765</v>
+        <v>3548108304.149941</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1415793891573628</v>
+        <v>0.1843443493582866</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0483486862239368</v>
+        <v>0.05335554612397591</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4654337162.675013</v>
+        <v>3171117588.208922</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07252941518650345</v>
+        <v>0.07558874775756144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02405969831559585</v>
+        <v>0.02745120794984033</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1370619739.522598</v>
+        <v>1672597755.151061</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940654316672392</v>
+        <v>0.1314323359800325</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04317418499992942</v>
+        <v>0.02752748581710769</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3279179930.13116</v>
+        <v>2586592780.632508</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1228003911498703</v>
+        <v>0.1328767724147401</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04203621816583606</v>
+        <v>0.05029264732703538</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1134793013.218777</v>
+        <v>1538333437.662562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1961472829953199</v>
+        <v>0.1904072337466837</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05184869943505276</v>
+        <v>0.04153577896612434</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4140991730.481536</v>
+        <v>3281633146.163541</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1191373019954502</v>
+        <v>0.09502863264600786</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06101274130194679</v>
+        <v>0.04511391462969309</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3331308437.796137</v>
+        <v>3799576492.423339</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1242400915512511</v>
+        <v>0.1972074732515084</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03508671600395751</v>
+        <v>0.02451072604305057</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868307462.471008</v>
+        <v>4879332676.881713</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1563594793248797</v>
+        <v>0.1629335688443564</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04169562084820184</v>
+        <v>0.04063884239766255</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4007778862.293253</v>
+        <v>4073599701.708852</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1927717906220363</v>
+        <v>0.2013988357556727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03244519869309879</v>
+        <v>0.03207660637404169</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1364351633.508353</v>
+        <v>1525369373.854109</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1269089589088996</v>
+        <v>0.1393072295080492</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04169709420028303</v>
+        <v>0.0506122869522659</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2963692379.264391</v>
+        <v>3840778064.789209</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1680569763658445</v>
+        <v>0.1135029223794746</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01796467879708393</v>
+        <v>0.01835647067828765</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1846683554.644308</v>
+        <v>1801756200.728016</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2000473537616408</v>
+        <v>0.1315874209208522</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03646816296676311</v>
+        <v>0.02600724695834272</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4456224059.937579</v>
+        <v>4143921389.616845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1234887641490223</v>
+        <v>0.1294348851499342</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03254524262559767</v>
+        <v>0.03362771330994117</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3433717364.069966</v>
+        <v>3521880222.37291</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1274762218419378</v>
+        <v>0.1784163097098583</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02914090793056846</v>
+        <v>0.02593896837473429</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2887185070.681508</v>
+        <v>2498451175.18076</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1295918284798729</v>
+        <v>0.145270564845217</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01992000244598092</v>
+        <v>0.02417615833009516</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1563229556.571658</v>
+        <v>1951293488.538889</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1904745389884831</v>
+        <v>0.172105677152385</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04173848732921994</v>
+        <v>0.04971556007805567</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4968540336.849662</v>
+        <v>4398595065.104132</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09500233228176992</v>
+        <v>0.06623563375024624</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04295639075118846</v>
+        <v>0.04061388703689335</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4488370034.827195</v>
+        <v>4718651950.912955</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136329940318501</v>
+        <v>0.1379394419337619</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03389817056305683</v>
+        <v>0.03254242568417312</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5134414086.841787</v>
+        <v>5092827298.84571</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1209460230169109</v>
+        <v>0.1139502186420813</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02767578241187648</v>
+        <v>0.02423630672589827</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5634610697.516158</v>
+        <v>5136141432.992868</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1610709242910811</v>
+        <v>0.1051931302647766</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0354042035234946</v>
+        <v>0.03398183100653772</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2613371783.610524</v>
+        <v>3480043067.455459</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09176877835343281</v>
+        <v>0.06627011361620809</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03374617387704417</v>
+        <v>0.04108514430407054</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4626088451.42139</v>
+        <v>3953709801.10352</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598652457523571</v>
+        <v>0.1444900987566123</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03524941047518738</v>
+        <v>0.0505039532286215</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2202845430.199063</v>
+        <v>1587997950.792979</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1310406787831182</v>
+        <v>0.1833717007880982</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0517645876634295</v>
+        <v>0.04692804420718963</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3506554595.436056</v>
+        <v>2938931963.637288</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09954108758872698</v>
+        <v>0.07981997188250654</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03660573750990345</v>
+        <v>0.03321235867293364</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4059980817.89055</v>
+        <v>4812639347.261642</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1596322029305276</v>
+        <v>0.1510469898388574</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02056677299085972</v>
+        <v>0.02253565872800913</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2206351392.111637</v>
+        <v>1689242279.759836</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1082778471940096</v>
+        <v>0.09464087593772758</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03588787272930676</v>
+        <v>0.03264312206990168</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2927206229.018989</v>
+        <v>3144787374.376588</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08661902776870921</v>
+        <v>0.1013791614138165</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04606543676603305</v>
+        <v>0.04278563852066936</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3955624649.905876</v>
+        <v>2584691478.641715</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1246207271041984</v>
+        <v>0.1408344927534939</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02696628577395402</v>
+        <v>0.02780915366030285</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2454425216.057612</v>
+        <v>1920287303.452216</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1668602001152242</v>
+        <v>0.143729946172221</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02371507887883146</v>
+        <v>0.02920837090362653</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3329574483.733073</v>
+        <v>3632121236.273901</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1124910380010757</v>
+        <v>0.1113745533503141</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02235395246647559</v>
+        <v>0.03337911783400068</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2288827866.92553</v>
+        <v>1810978310.870005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566643692991342</v>
+        <v>0.1221562741076921</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02304333446396551</v>
+        <v>0.02034016784155136</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3098783679.410057</v>
+        <v>3888325604.197268</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1140557841016194</v>
+        <v>0.1131022348762954</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04022479148670138</v>
+        <v>0.04852768489404593</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1451210113.199228</v>
+        <v>1578929493.802794</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1276337638408872</v>
+        <v>0.1635026853791809</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02916199876970726</v>
+        <v>0.02483506992059708</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3815644252.628523</v>
+        <v>4087673337.1159</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07760956273958534</v>
+        <v>0.07744834128370266</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0336320768426649</v>
+        <v>0.02873812936130178</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4189345520.094326</v>
+        <v>4388311556.467843</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1054921147225234</v>
+        <v>0.0913392676390677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02804833713890079</v>
+        <v>0.0291336087352756</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4650013922.24454</v>
+        <v>5070952533.395947</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1475035198476852</v>
+        <v>0.1832140696921719</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02012623915261955</v>
+        <v>0.02211670548314391</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1813790695.348196</v>
+        <v>2190392138.985456</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1509992605577438</v>
+        <v>0.1496942197455667</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03383739445034589</v>
+        <v>0.02976604069716061</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2576987808.648599</v>
+        <v>2345567511.605959</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1115595587679592</v>
+        <v>0.09509443030391998</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03337061599117489</v>
+        <v>0.04377523365037931</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2677832903.076338</v>
+        <v>2220412439.689936</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1554184356707455</v>
+        <v>0.1723408727099296</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04027108569686154</v>
+        <v>0.04055137234178152</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2791059238.831744</v>
+        <v>2415754327.677666</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1236609925756176</v>
+        <v>0.1566955289902797</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02756585903286565</v>
+        <v>0.02508685780762392</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>955480876.9640456</v>
+        <v>1391574019.698007</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1376997254032422</v>
+        <v>0.1510804257687892</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02906238122552047</v>
+        <v>0.03459903452723068</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3497379197.218857</v>
+        <v>2271079775.641231</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1491853226012919</v>
+        <v>0.1721585785722213</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02926160071903736</v>
+        <v>0.03076228807441692</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254794467.120991</v>
+        <v>2271770140.424845</v>
       </c>
       <c r="F89" t="n">
-        <v>0.109266424699044</v>
+        <v>0.1070752824334767</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03913779489340826</v>
+        <v>0.03328346932280422</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1697482255.66528</v>
+        <v>1365085048.818847</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1187529157015925</v>
+        <v>0.1003228283242539</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04084895410607122</v>
+        <v>0.04586216761405197</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1999069331.221756</v>
+        <v>1882374369.930993</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1743335206996883</v>
+        <v>0.1577220070612481</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0410062854816939</v>
+        <v>0.03944196923823412</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2686426623.774179</v>
+        <v>2630663097.396708</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08246996887312334</v>
+        <v>0.08485231302852164</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04455651409294725</v>
+        <v>0.03748479079284988</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3240419851.792797</v>
+        <v>3120298991.756558</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1394630139148336</v>
+        <v>0.1036759486926609</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03834090184018851</v>
+        <v>0.03895129202074393</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1555661502.8471</v>
+        <v>2525579897.373332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1294793948866718</v>
+        <v>0.1203899408194969</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03673520663382166</v>
+        <v>0.03118899373157132</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2031404286.237624</v>
+        <v>3081572130.16607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1147601808350826</v>
+        <v>0.129328759106056</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03498910121981354</v>
+        <v>0.04905648062447952</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2183618151.400957</v>
+        <v>2281649901.275754</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08985284074336981</v>
+        <v>0.1343452769489693</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04524060826331109</v>
+        <v>0.03876680651392109</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4711697393.242656</v>
+        <v>3419003134.552763</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1242429391296634</v>
+        <v>0.1352012300304575</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02150562066013173</v>
+        <v>0.02091882363090481</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3689177565.881672</v>
+        <v>3274043458.717432</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209927311964857</v>
+        <v>0.1138724080642368</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02446447497357422</v>
+        <v>0.02517942405836556</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3286836972.024587</v>
+        <v>3304411929.713288</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09680850515248948</v>
+        <v>0.1109422639155256</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03226721984341775</v>
+        <v>0.03542894104306635</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4318290231.446842</v>
+        <v>3019016632.491521</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1189773690374806</v>
+        <v>0.1337165476788446</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02727016677072035</v>
+        <v>0.01820498257972273</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3492848714.062939</v>
+        <v>2983431143.503058</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1567231759136872</v>
+        <v>0.1693891896525525</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04382929695934974</v>
+        <v>0.0537769310078632</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_305.xlsx
+++ b/output/fit_clients/fit_round_305.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1528487821.964355</v>
+        <v>2160084824.932862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1069062872223436</v>
+        <v>0.07618869465585532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03179384978126551</v>
+        <v>0.03846453943924355</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2556953540.268852</v>
+        <v>2605968300.220927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1202060370605681</v>
+        <v>0.1775060859916297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03055376890082354</v>
+        <v>0.03211079377568949</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4452052178.469702</v>
+        <v>3530770271.001238</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214580010824061</v>
+        <v>0.1133918539645848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02910888459838265</v>
+        <v>0.03118285068941615</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>160</v>
+      </c>
+      <c r="J4" t="n">
+        <v>305</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3197915980.640908</v>
+        <v>3285743508.862988</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09253933025972726</v>
+        <v>0.07537064861220852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04267223865824932</v>
+        <v>0.03592350038066559</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2424561014.185234</v>
+        <v>2471281302.282682</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0986045003778859</v>
+        <v>0.1418581604614905</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03919355244434048</v>
+        <v>0.04583380708815032</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1995679909.317763</v>
+        <v>2556156511.713631</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09573932915201769</v>
+        <v>0.09365869966656946</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04969594294931554</v>
+        <v>0.04821619537974618</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3534497591.684274</v>
+        <v>2609211052.347766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.202352787120775</v>
+        <v>0.1430065535788194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03214048047326224</v>
+        <v>0.02805350627095023</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>304</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43.38357173658709</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1915339256.52727</v>
+        <v>1556066961.539918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1674635857965686</v>
+        <v>0.1722612262970682</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03561515841263643</v>
+        <v>0.02597374224623766</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5478843925.044287</v>
+        <v>5125805777.26648</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2098533185057412</v>
+        <v>0.1608115474776822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04087250628445823</v>
+        <v>0.04663549917989756</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>269</v>
+      </c>
+      <c r="J10" t="n">
+        <v>304</v>
+      </c>
+      <c r="K10" t="n">
+        <v>81.28374846716056</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4041915318.978035</v>
+        <v>3189686375.192821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1361718922459055</v>
+        <v>0.1799558491338043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03180736673516185</v>
+        <v>0.0462305473506207</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>122</v>
+      </c>
+      <c r="J11" t="n">
+        <v>303</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2308261499.727522</v>
+        <v>3098353715.273451</v>
       </c>
       <c r="F12" t="n">
-        <v>0.166244506236835</v>
+        <v>0.1953618461746964</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0486293657233996</v>
+        <v>0.03854899372082358</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3996933140.022851</v>
+        <v>5034924215.068048</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09698377300422691</v>
+        <v>0.1002847116637218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02513680324738895</v>
+        <v>0.02633773744969662</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>157</v>
+      </c>
+      <c r="J13" t="n">
+        <v>305</v>
+      </c>
+      <c r="K13" t="n">
+        <v>81.62719687110086</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2926252699.719778</v>
+        <v>2433215612.213707</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1136507607962237</v>
+        <v>0.1334817760907003</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03595261810262591</v>
+        <v>0.0420782574837456</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553870335.490015</v>
+        <v>1271758955.992152</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09595183551875398</v>
+        <v>0.07631563312065465</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03083009503451191</v>
+        <v>0.03986148108233727</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2488116164.767694</v>
+        <v>2776447949.471589</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09930168826754963</v>
+        <v>0.1091949987148516</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03766103800348833</v>
+        <v>0.03741089439646669</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4943098049.879481</v>
+        <v>3807887291.400964</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1631032944380922</v>
+        <v>0.1558016145448205</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04500767622752901</v>
+        <v>0.0403262255699966</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>144</v>
+      </c>
+      <c r="J17" t="n">
+        <v>305</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2631212853.188119</v>
+        <v>2658704440.957268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125914989344667</v>
+        <v>0.1440285906707423</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02612278420925264</v>
+        <v>0.0211302682026572</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1087109751.493387</v>
+        <v>1277701580.025397</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1656466962458218</v>
+        <v>0.177294661690285</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02598609622983475</v>
+        <v>0.02328678760594773</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2375747843.509345</v>
+        <v>2672465181.684658</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1113538099198098</v>
+        <v>0.1049671436335609</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02229586301630904</v>
+        <v>0.03166568425719475</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2026250465.700743</v>
+        <v>2489763852.529784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06937202949965288</v>
+        <v>0.07413997652346116</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04005504151807684</v>
+        <v>0.0310915141085089</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2616116462.888297</v>
+        <v>2801118402.288284</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1172584339403674</v>
+        <v>0.09044728755889216</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05484209432990024</v>
+        <v>0.04989573360954826</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1140309890.369738</v>
+        <v>1308638364.189587</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1461808951982554</v>
+        <v>0.1365354469126486</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05339587767342559</v>
+        <v>0.05352243856720657</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1277,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3253057442.541053</v>
+        <v>3561867600.128769</v>
       </c>
       <c r="F24" t="n">
-        <v>0.143185391261053</v>
+        <v>0.1323676204639554</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03202749380480307</v>
+        <v>0.03296805542628113</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>90</v>
+      </c>
+      <c r="J24" t="n">
+        <v>304</v>
+      </c>
+      <c r="K24" t="n">
+        <v>71.4783037813505</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1018635658.782575</v>
+        <v>1285792665.900085</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1053408298331356</v>
+        <v>0.08823827315214067</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02979338826955122</v>
+        <v>0.02648023779245015</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1392615411.050957</v>
+        <v>1093200274.741755</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07881635473754081</v>
+        <v>0.08086196429005696</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02446774007600581</v>
+        <v>0.02783267433528</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3163995546.16643</v>
+        <v>3509081415.508588</v>
       </c>
       <c r="F27" t="n">
-        <v>0.118422959708901</v>
+        <v>0.1313180544715482</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01690819496734607</v>
+        <v>0.02157568296875746</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>126</v>
+      </c>
+      <c r="J27" t="n">
+        <v>305</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1419,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2862481800.864377</v>
+        <v>2473403844.848186</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1329861106371106</v>
+        <v>0.1323899653399873</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03588339812660194</v>
+        <v>0.03491804825188565</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>64</v>
+      </c>
+      <c r="J28" t="n">
+        <v>304</v>
+      </c>
+      <c r="K28" t="n">
+        <v>40.47759153281002</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3989531945.045794</v>
+        <v>5618423534.031197</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1361176536454568</v>
+        <v>0.0939475652870447</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03649190480737424</v>
+        <v>0.03444957291490901</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>285</v>
+      </c>
+      <c r="J29" t="n">
+        <v>305</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1655844180.741846</v>
+        <v>1704254727.52371</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1183483805531656</v>
+        <v>0.0997715017924527</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03788884423123103</v>
+        <v>0.02885836972053295</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1336514940.549376</v>
+        <v>1385834401.647129</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1050355840311437</v>
+        <v>0.08772709569119251</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03395145363503919</v>
+        <v>0.04113992629608604</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1758429191.931774</v>
+        <v>1496950740.937554</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09099282255059588</v>
+        <v>0.09471962469704566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02897347784791764</v>
+        <v>0.02752962102294881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2466585105.398337</v>
+        <v>2578815592.252099</v>
       </c>
       <c r="F33" t="n">
-        <v>0.132964529380722</v>
+        <v>0.1885499235918586</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04799794655949596</v>
+        <v>0.04159171004092952</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094249831.817303</v>
+        <v>1566071953.417425</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08962890084240543</v>
+        <v>0.109052630899804</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0235038384366995</v>
+        <v>0.01815788505312308</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>987431098.6382865</v>
+        <v>912339434.3173211</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08850150808253769</v>
+        <v>0.08822295268384561</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04132233654664152</v>
+        <v>0.02850030505846265</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2597359769.28586</v>
+        <v>2233178242.850198</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727357643521296</v>
+        <v>0.1268296492193386</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02809617972507982</v>
+        <v>0.02893993151024903</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1998403053.16435</v>
+        <v>2854424530.943927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08069657989593611</v>
+        <v>0.07297795593185279</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02824660854790184</v>
+        <v>0.04183133156871772</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1939952777.319343</v>
+        <v>1531386696.966641</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08495061472889949</v>
+        <v>0.1051850085475724</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02598917730458328</v>
+        <v>0.03538564676517143</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1656111554.184485</v>
+        <v>1916917668.624163</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1884284863085285</v>
+        <v>0.1454405633364323</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02317864780599149</v>
+        <v>0.03161780962762385</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1200314125.282638</v>
+        <v>1768245085.342577</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1163756178095151</v>
+        <v>0.130272161234159</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04364798823432035</v>
+        <v>0.04537406732865711</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2275498936.448644</v>
+        <v>1802411978.722145</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1262918516397536</v>
+        <v>0.1563075236501578</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03836714518936867</v>
+        <v>0.041928268019548</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4291850526.055815</v>
+        <v>3042997418.624554</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09925433506716981</v>
+        <v>0.1130876445666814</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03737141233696753</v>
+        <v>0.02812151206408748</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>126</v>
+      </c>
+      <c r="J42" t="n">
+        <v>304</v>
+      </c>
+      <c r="K42" t="n">
+        <v>61.66307856554093</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2723261887.209166</v>
+        <v>2330711138.698893</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1695192907478437</v>
+        <v>0.1450783069995181</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02287854388974074</v>
+        <v>0.02156869669266157</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1440070384.57879</v>
+        <v>1523901820.449152</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08066737072112411</v>
+        <v>0.09003789682974293</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03473964525601147</v>
+        <v>0.02280113087768594</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1666924585.00486</v>
+        <v>1549209301.024559</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1314238571029019</v>
+        <v>0.1814198565667398</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04491652105800698</v>
+        <v>0.05631186182026711</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4707392257.401557</v>
+        <v>4417292839.027543</v>
       </c>
       <c r="F46" t="n">
-        <v>0.137717192050433</v>
+        <v>0.1589470995787789</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05438309662878831</v>
+        <v>0.06094347683725643</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>181</v>
+      </c>
+      <c r="J46" t="n">
+        <v>305</v>
+      </c>
+      <c r="K46" t="n">
+        <v>82.17015643915272</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3548108304.149941</v>
+        <v>4259735004.643957</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1843443493582866</v>
+        <v>0.1641697472712427</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05335554612397591</v>
+        <v>0.03905302896322096</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>136</v>
+      </c>
+      <c r="J47" t="n">
+        <v>304</v>
+      </c>
+      <c r="K47" t="n">
+        <v>68.88831019873376</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3171117588.208922</v>
+        <v>3776382548.509305</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07558874775756144</v>
+        <v>0.08941806059604844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02745120794984033</v>
+        <v>0.03842697773696586</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>152</v>
+      </c>
+      <c r="J48" t="n">
+        <v>305</v>
+      </c>
+      <c r="K48" t="n">
+        <v>87.71353824106575</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672597755.151061</v>
+        <v>1515884442.02069</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1314323359800325</v>
+        <v>0.1351770707702782</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02752748581710769</v>
+        <v>0.03909739604210247</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2586592780.632508</v>
+        <v>3310557268.604393</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1328767724147401</v>
+        <v>0.1764172589906896</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05029264732703538</v>
+        <v>0.04594716880334264</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1538333437.662562</v>
+        <v>1098273709.754045</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1904072337466837</v>
+        <v>0.1776142996049773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04153577896612434</v>
+        <v>0.0421732467360754</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3281633146.163541</v>
+        <v>4605343558.800159</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09502863264600786</v>
+        <v>0.1006188033699749</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04511391462969309</v>
+        <v>0.05281368133155026</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>187</v>
+      </c>
+      <c r="J52" t="n">
+        <v>304</v>
+      </c>
+      <c r="K52" t="n">
+        <v>79.48939610117493</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3799576492.423339</v>
+        <v>2715793197.207865</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1972074732515084</v>
+        <v>0.1370818789718133</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02451072604305057</v>
+        <v>0.02408684976382977</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>42</v>
+      </c>
+      <c r="J53" t="n">
+        <v>304</v>
+      </c>
+      <c r="K53" t="n">
+        <v>46.65884673699323</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4879332676.881713</v>
+        <v>3863662122.714554</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1629335688443564</v>
+        <v>0.1118164538287429</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04063884239766255</v>
+        <v>0.0375036408860463</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>159</v>
+      </c>
+      <c r="J54" t="n">
+        <v>305</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4073599701.708852</v>
+        <v>3251325379.799537</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2013988357556727</v>
+        <v>0.2148368371118898</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03207660637404169</v>
+        <v>0.02927701834821724</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>141</v>
+      </c>
+      <c r="J55" t="n">
+        <v>304</v>
+      </c>
+      <c r="K55" t="n">
+        <v>61.87731794011369</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1525369373.854109</v>
+        <v>1143664931.337759</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1393072295080492</v>
+        <v>0.100744987628579</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0506122869522659</v>
+        <v>0.04406584604300404</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3840778064.789209</v>
+        <v>3542707583.746405</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1135029223794746</v>
+        <v>0.1143264117843018</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01835647067828765</v>
+        <v>0.01771246850203271</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>125</v>
+      </c>
+      <c r="J57" t="n">
+        <v>305</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1801756200.728016</v>
+        <v>1242783506.753632</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1315874209208522</v>
+        <v>0.1810201818172043</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02600724695834272</v>
+        <v>0.03559594037829174</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4143921389.616845</v>
+        <v>4628614235.749889</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1294348851499342</v>
+        <v>0.1067222007095478</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03362771330994117</v>
+        <v>0.03418785983227392</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>147</v>
+      </c>
+      <c r="J59" t="n">
+        <v>305</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3521880222.37291</v>
+        <v>3446726839.851912</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1784163097098583</v>
+        <v>0.1494644488810401</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02593896837473429</v>
+        <v>0.02158399423831495</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>51</v>
+      </c>
+      <c r="J60" t="n">
+        <v>305</v>
+      </c>
+      <c r="K60" t="n">
+        <v>83.49892965222067</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2498451175.18076</v>
+        <v>2110852334.593268</v>
       </c>
       <c r="F61" t="n">
-        <v>0.145270564845217</v>
+        <v>0.1287425092194014</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02417615833009516</v>
+        <v>0.02840880900228803</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1951293488.538889</v>
+        <v>1295371752.048748</v>
       </c>
       <c r="F62" t="n">
-        <v>0.172105677152385</v>
+        <v>0.1776650291057174</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04971556007805567</v>
+        <v>0.03123890875710674</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4398595065.104132</v>
+        <v>3777033770.305413</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06623563375024624</v>
+        <v>0.0948823288405489</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04061388703689335</v>
+        <v>0.04405760808997131</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>148</v>
+      </c>
+      <c r="J63" t="n">
+        <v>305</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4718651950.912955</v>
+        <v>4638324899.660433</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1379394419337619</v>
+        <v>0.1353147292690602</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03254242568417312</v>
+        <v>0.02280015338174506</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>150</v>
+      </c>
+      <c r="J64" t="n">
+        <v>304</v>
+      </c>
+      <c r="K64" t="n">
+        <v>80.68188224988744</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5092827298.84571</v>
+        <v>3982153825.483361</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1139502186420813</v>
+        <v>0.1338353601773788</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02423630672589827</v>
+        <v>0.02339200001077965</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>242</v>
+      </c>
+      <c r="J65" t="n">
+        <v>305</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5136141432.992868</v>
+        <v>3669125068.388594</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051931302647766</v>
+        <v>0.1131906019509644</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03398183100653772</v>
+        <v>0.04490703268094215</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>150</v>
+      </c>
+      <c r="J66" t="n">
+        <v>305</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3480043067.455459</v>
+        <v>2570712191.877564</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06627011361620809</v>
+        <v>0.07928431594608332</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04108514430407054</v>
+        <v>0.04116886576498777</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3953709801.10352</v>
+        <v>3857485851.861778</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1444900987566123</v>
+        <v>0.1452322061072026</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0505039532286215</v>
+        <v>0.05178181786976791</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>163</v>
+      </c>
+      <c r="J68" t="n">
+        <v>305</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.20193389860033</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1587997950.792979</v>
+        <v>2447381403.304539</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1833717007880982</v>
+        <v>0.1646468367477709</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04692804420718963</v>
+        <v>0.05397033121516312</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2938931963.637288</v>
+        <v>2848710408.814894</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07981997188250654</v>
+        <v>0.07591031117894957</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03321235867293364</v>
+        <v>0.03600638601882695</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4812639347.261642</v>
+        <v>4680397313.980935</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510469898388574</v>
+        <v>0.1525070759286983</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02253565872800913</v>
+        <v>0.03156676500555367</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>227</v>
+      </c>
+      <c r="J71" t="n">
+        <v>305</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1689242279.759836</v>
+        <v>2216970167.936061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09464087593772758</v>
+        <v>0.09647633965878294</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03264312206990168</v>
+        <v>0.03728204958163225</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3144787374.376588</v>
+        <v>3332311803.978281</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1013791614138165</v>
+        <v>0.09433750784851962</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04278563852066936</v>
+        <v>0.04163471031770715</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>305</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2584691478.641715</v>
+        <v>2802761686.472667</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1408344927534939</v>
+        <v>0.1731138594236101</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02780915366030285</v>
+        <v>0.03514393660792293</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1920287303.452216</v>
+        <v>2471101797.280475</v>
       </c>
       <c r="F75" t="n">
-        <v>0.143729946172221</v>
+        <v>0.1563127498653203</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02920837090362653</v>
+        <v>0.02517733078067137</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3632121236.273901</v>
+        <v>4993289469.671389</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1113745533503141</v>
+        <v>0.1176775316836701</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03337911783400068</v>
+        <v>0.03384268356401145</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>143</v>
+      </c>
+      <c r="J76" t="n">
+        <v>305</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1810978310.870005</v>
+        <v>1967376271.443805</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1221562741076921</v>
+        <v>0.1441343761292458</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02034016784155136</v>
+        <v>0.02596195112247361</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3888325604.197268</v>
+        <v>4210492844.058107</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1131022348762954</v>
+        <v>0.1147130208578276</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04852768489404593</v>
+        <v>0.04763481706530501</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>151</v>
+      </c>
+      <c r="J78" t="n">
+        <v>305</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1578929493.802794</v>
+        <v>1505014708.832458</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1635026853791809</v>
+        <v>0.1337611584265969</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02483506992059708</v>
+        <v>0.02689919370022567</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4087673337.1159</v>
+        <v>3745620708.751938</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07744834128370266</v>
+        <v>0.1096624860925305</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02873812936130178</v>
+        <v>0.02470282542583623</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>149</v>
+      </c>
+      <c r="J80" t="n">
+        <v>304</v>
+      </c>
+      <c r="K80" t="n">
+        <v>61.20185710928347</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4388311556.467843</v>
+        <v>5122565331.368476</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0913392676390677</v>
+        <v>0.1033998901760806</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0291336087352756</v>
+        <v>0.02663093762117389</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>140</v>
+      </c>
+      <c r="J81" t="n">
+        <v>305</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5070952533.395947</v>
+        <v>5550938280.739388</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1832140696921719</v>
+        <v>0.1577018234780303</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02211670548314391</v>
+        <v>0.02749416541729017</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>222</v>
+      </c>
+      <c r="J82" t="n">
+        <v>304</v>
+      </c>
+      <c r="K82" t="n">
+        <v>80.05534334394581</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2190392138.985456</v>
+        <v>1774016972.392139</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1496942197455667</v>
+        <v>0.1445002318293133</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02976604069716061</v>
+        <v>0.04101669092069421</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2345567511.605959</v>
+        <v>2285129849.117651</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09509443030391998</v>
+        <v>0.09767682279172274</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04377523365037931</v>
+        <v>0.05105066533292728</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2220412439.689936</v>
+        <v>3260316509.856601</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1723408727099296</v>
+        <v>0.1409043519978762</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04055137234178152</v>
+        <v>0.05481253558900948</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2415754327.677666</v>
+        <v>1743906773.708368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1566955289902797</v>
+        <v>0.1431534973092575</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02508685780762392</v>
+        <v>0.02340530499961876</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1391574019.698007</v>
+        <v>1195849166.33311</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1510804257687892</v>
+        <v>0.1218267421389351</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03459903452723068</v>
+        <v>0.03957026775825115</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2271079775.641231</v>
+        <v>2995721333.408444</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1721585785722213</v>
+        <v>0.1275320934983374</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03076228807441692</v>
+        <v>0.03103318723844423</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2271770140.424845</v>
+        <v>3147791233.684407</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1070752824334767</v>
+        <v>0.1328957695231378</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03328346932280422</v>
+        <v>0.02889763094012182</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1365085048.818847</v>
+        <v>1845846809.058389</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1003228283242539</v>
+        <v>0.1191649641183077</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04586216761405197</v>
+        <v>0.0435067777950742</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1882374369.930993</v>
+        <v>1809067845.279687</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1577220070612481</v>
+        <v>0.13717861570758</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03944196923823412</v>
+        <v>0.05529472608100331</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2630663097.396708</v>
+        <v>2770642554.888176</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08485231302852164</v>
+        <v>0.09885158291347423</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03748479079284988</v>
+        <v>0.04721096258191087</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3120298991.756558</v>
+        <v>3148530553.270743</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1036759486926609</v>
+        <v>0.1321290144295508</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03895129202074393</v>
+        <v>0.04928989226718137</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>136</v>
+      </c>
+      <c r="J93" t="n">
+        <v>304</v>
+      </c>
+      <c r="K93" t="n">
+        <v>58.23915956493577</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2525579897.373332</v>
+        <v>2472108135.915497</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1203899408194969</v>
+        <v>0.1160189855871731</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03118899373157132</v>
+        <v>0.0326186897267629</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3081572130.16607</v>
+        <v>2625929497.625075</v>
       </c>
       <c r="F95" t="n">
-        <v>0.129328759106056</v>
+        <v>0.1293659917175445</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04905648062447952</v>
+        <v>0.03316931694703781</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2281649901.275754</v>
+        <v>1658055551.480084</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1343452769489693</v>
+        <v>0.1217528786986219</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03876680651392109</v>
+        <v>0.0313681980354242</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3419003134.552763</v>
+        <v>5150144417.562737</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1352012300304575</v>
+        <v>0.1221840402548688</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02091882363090481</v>
+        <v>0.0226573188892518</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>153</v>
+      </c>
+      <c r="J97" t="n">
+        <v>304</v>
+      </c>
+      <c r="K97" t="n">
+        <v>81.46964139010626</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3274043458.717432</v>
+        <v>2626668044.012198</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1138724080642368</v>
+        <v>0.09687922776781241</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02517942405836556</v>
+        <v>0.02168832460883391</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>75</v>
+      </c>
+      <c r="J98" t="n">
+        <v>303</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3304411929.713288</v>
+        <v>2520353978.652342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1109422639155256</v>
+        <v>0.1163461192518978</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03542894104306635</v>
+        <v>0.03480400519141603</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3019016632.491521</v>
+        <v>3106211191.845707</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1337165476788446</v>
+        <v>0.1792018979532556</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01820498257972273</v>
+        <v>0.01806042981826772</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>133</v>
+      </c>
+      <c r="J100" t="n">
+        <v>304</v>
+      </c>
+      <c r="K100" t="n">
+        <v>56.51499159045941</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2983431143.503058</v>
+        <v>2751811106.397243</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1693891896525525</v>
+        <v>0.2026650222673997</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0537769310078632</v>
+        <v>0.05128906906505617</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
